--- a/VT_REG_PRI_V03.xlsx
+++ b/VT_REG_PRI_V03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Veda2.0_localhost_2.17.1.1\Veda\Veda_models\Demo_models\DemoS_003\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Veda_TIMES_OSeMOSYS_demo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622F122E-CC72-4F59-BE06-6D4DA5805885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B377037-0E1B-45E8-ABF4-74084E82E65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30975" yWindow="4185" windowWidth="21600" windowHeight="11295" tabRatio="901" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -34,7 +34,20 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -8431,7 +8444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="205">
   <si>
     <t>CommName</t>
   </si>
@@ -9037,6 +9050,15 @@
   </si>
   <si>
     <t>CEFF-O</t>
+  </si>
+  <si>
+    <t>CommIN</t>
+  </si>
+  <si>
+    <t>CommOUT</t>
+  </si>
+  <si>
+    <t>CEFFO</t>
   </si>
 </sst>
 </file>
@@ -13330,28 +13352,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S51"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.73046875" customWidth="1"/>
+    <col min="6" max="6" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="12.73046875" customWidth="1"/>
+    <col min="12" max="13" width="10.86328125" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.265625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="P1" s="24" t="s">
         <v>117</v>
       </c>
@@ -13365,7 +13385,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.5">
       <c r="D2" s="51" t="s">
         <v>47</v>
       </c>
@@ -13401,7 +13421,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" ht="40.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="8"/>
       <c r="D3" s="52" t="s">
         <v>55</v>
@@ -13431,7 +13451,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C4" s="129" t="s">
         <v>62</v>
       </c>
@@ -13445,7 +13465,7 @@
       <c r="K4" s="131"/>
       <c r="L4" s="132"/>
     </row>
-    <row r="5" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B5" s="53" t="s">
         <v>63</v>
       </c>
@@ -13482,7 +13502,7 @@
       </c>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B6" s="53" t="s">
         <v>65</v>
       </c>
@@ -13518,7 +13538,7 @@
         <v>60995.078999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B7" s="53" t="s">
         <v>67</v>
       </c>
@@ -13555,7 +13575,7 @@
       </c>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B8" s="125" t="s">
         <v>191</v>
       </c>
@@ -13599,7 +13619,7 @@
         <v>78479.795999999988</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="48"/>
       <c r="C9" s="135" t="s">
         <v>69</v>
@@ -13614,7 +13634,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="136"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B10" s="53" t="s">
         <v>70</v>
       </c>
@@ -13650,7 +13670,7 @@
         <v>-2705.0259999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B11" s="53" t="s">
         <v>54</v>
       </c>
@@ -13686,7 +13706,7 @@
         <v>-15203.465111111109</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B12" s="53" t="s">
         <v>73</v>
       </c>
@@ -13722,7 +13742,7 @@
         <v>4.6210000000000946</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B13" s="53" t="s">
         <v>75</v>
       </c>
@@ -13744,7 +13764,7 @@
         <v>-31736.460999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B14" s="48"/>
       <c r="C14" s="67" t="s">
         <v>77</v>
@@ -13786,7 +13806,7 @@
         <v>-49640.331111111111</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B15" s="48"/>
       <c r="C15" s="135" t="s">
         <v>78</v>
@@ -13801,7 +13821,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="136"/>
     </row>
-    <row r="16" spans="2:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B16" s="53" t="s">
         <v>79</v>
       </c>
@@ -13837,7 +13857,7 @@
         <v>12836.795</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B17" s="53" t="s">
         <v>81</v>
       </c>
@@ -13873,7 +13893,7 @@
         <v>5514.125</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B18" s="53" t="s">
         <v>83</v>
       </c>
@@ -13909,7 +13929,7 @@
         <v>13911.147999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B19" s="53" t="s">
         <v>85</v>
       </c>
@@ -13945,7 +13965,7 @@
         <v>1140.7249999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B20" s="53" t="s">
         <v>87</v>
       </c>
@@ -13981,7 +14001,7 @@
         <v>15269.710999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B21" s="53" t="s">
         <v>89</v>
       </c>
@@ -14023,7 +14043,7 @@
         <v>4249.0590000000029</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B22" s="53" t="s">
         <v>108</v>
       </c>
@@ -14057,7 +14077,7 @@
         <v>4758.7839999999997</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B23" s="53" t="s">
         <v>109</v>
       </c>
@@ -14091,7 +14111,7 @@
         <v>2111.0920000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B24" s="125" t="s">
         <v>111</v>
       </c>
@@ -14135,7 +14155,7 @@
         <v>59791.438999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -14145,7 +14165,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -14156,7 +14176,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C27" s="59" t="s">
         <v>179</v>
       </c>
@@ -14171,7 +14191,7 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -14182,7 +14202,7 @@
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -14193,7 +14213,7 @@
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -14204,7 +14224,7 @@
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -14215,7 +14235,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -14226,7 +14246,7 @@
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -14237,7 +14257,7 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -14248,7 +14268,7 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -14259,7 +14279,7 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="D36" s="25" t="s">
         <v>47</v>
       </c>
@@ -14277,7 +14297,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C37" s="26" t="s">
         <v>147</v>
       </c>
@@ -14298,7 +14318,7 @@
       <c r="L37" s="30"/>
       <c r="M37" s="30"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C38" s="28" t="s">
         <v>148</v>
       </c>
@@ -14319,15 +14339,15 @@
       <c r="L38" s="30"/>
       <c r="M38" s="30"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C39" s="1"/>
       <c r="D39" s="30"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C40" s="1"/>
       <c r="D40" s="30"/>
     </row>
-    <row r="41" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B41" s="33" t="s">
         <v>129</v>
       </c>
@@ -14360,7 +14380,7 @@
       </c>
       <c r="L41" s="34"/>
     </row>
-    <row r="42" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B42" s="53" t="s">
         <v>79</v>
       </c>
@@ -14381,7 +14401,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B43" s="53" t="s">
         <v>87</v>
       </c>
@@ -14402,7 +14422,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C46" s="86" t="s">
         <v>137</v>
       </c>
@@ -14413,7 +14433,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B47" s="24" t="s">
         <v>151</v>
       </c>
@@ -14427,7 +14447,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B48" s="53" t="s">
         <v>79</v>
       </c>
@@ -14437,7 +14457,7 @@
       <c r="D48" s="83"/>
       <c r="E48" s="83"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B49" s="53" t="s">
         <v>87</v>
       </c>
@@ -14447,7 +14467,7 @@
       <c r="D49" s="83"/>
       <c r="E49" s="83"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B50" s="53" t="s">
         <v>89</v>
       </c>
@@ -14457,7 +14477,7 @@
       <c r="D50" s="83"/>
       <c r="E50" s="83"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B51" s="53" t="s">
         <v>54</v>
       </c>
@@ -14482,32 +14502,32 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="35" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="35" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="35" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="35" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="35" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.73046875" style="35" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.86328125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="8.1328125" style="35" customWidth="1"/>
+    <col min="11" max="11" width="2.73046875" style="35" customWidth="1"/>
+    <col min="12" max="12" width="12.73046875" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1328125" style="35" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.59765625" style="35" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.59765625" style="35" customWidth="1"/>
+    <col min="17" max="17" width="11.73046875" style="35" customWidth="1"/>
     <col min="18" max="18" width="13" style="35" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="35" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="35"/>
+    <col min="19" max="19" width="13.73046875" style="35" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.3984375" style="35" customWidth="1"/>
+    <col min="21" max="16384" width="8.86328125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="10" t="s">
         <v>94</v>
       </c>
@@ -14528,7 +14548,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="23" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -14565,7 +14585,7 @@
       <c r="S2" s="164"/>
       <c r="T2" s="164"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="13.15" x14ac:dyDescent="0.4">
       <c r="L3" s="166" t="s">
         <v>7</v>
       </c>
@@ -14594,7 +14614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -14628,7 +14648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -14655,7 +14675,7 @@
       <c r="S5" s="164"/>
       <c r="T5" s="164"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
@@ -14676,7 +14696,7 @@
       <c r="S8" s="164"/>
       <c r="T8" s="164"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="20" t="s">
         <v>1</v>
       </c>
@@ -14732,7 +14752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
@@ -14788,7 +14808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="17" t="s">
         <v>113</v>
       </c>
@@ -14823,7 +14843,7 @@
       <c r="S11" s="160"/>
       <c r="T11" s="160"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="35" t="str">
         <f>N12</f>
         <v>DTPSCOA</v>
@@ -14876,39 +14896,39 @@
       <c r="S12" s="164"/>
       <c r="T12" s="164"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E13" s="37"/>
       <c r="F13" s="123"/>
       <c r="G13" s="123"/>
       <c r="I13" s="123"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E14" s="37"/>
       <c r="F14" s="123"/>
       <c r="G14" s="123"/>
       <c r="I14" s="123"/>
       <c r="O14" s="36"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E15" s="37"/>
       <c r="F15" s="123"/>
       <c r="G15" s="123"/>
       <c r="I15" s="123"/>
       <c r="O15" s="36"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I18" s="105"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I19" s="105"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="97"/>
       <c r="C23" s="35" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="124"/>
       <c r="C24" s="35" t="s">
         <v>181</v>
@@ -14929,32 +14949,32 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="35" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="35" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="35" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="35" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.42578125" style="35" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="35" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="35" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="35" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="35"/>
+    <col min="4" max="4" width="13.86328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.265625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="8.1328125" style="35" customWidth="1"/>
+    <col min="11" max="11" width="2.73046875" style="35" customWidth="1"/>
+    <col min="12" max="12" width="12.73046875" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.1328125" style="35" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.59765625" style="35" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.3984375" style="35" customWidth="1"/>
+    <col min="17" max="17" width="11.73046875" style="35" customWidth="1"/>
+    <col min="18" max="18" width="14.265625" style="35" customWidth="1"/>
+    <col min="19" max="19" width="13.73046875" style="35" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.3984375" style="35" customWidth="1"/>
+    <col min="21" max="16384" width="8.86328125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="10" t="s">
         <v>94</v>
       </c>
@@ -14974,7 +14994,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="13" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -15010,7 +15030,7 @@
       <c r="S2" s="164"/>
       <c r="T2" s="164"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="13.15" x14ac:dyDescent="0.4">
       <c r="L3" s="166" t="s">
         <v>7</v>
       </c>
@@ -15039,7 +15059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -15073,7 +15093,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -15100,7 +15120,7 @@
       <c r="S5" s="164"/>
       <c r="T5" s="164"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
@@ -15121,7 +15141,7 @@
       <c r="S8" s="164"/>
       <c r="T8" s="164"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="20" t="s">
         <v>1</v>
       </c>
@@ -15177,7 +15197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
@@ -15233,7 +15253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="17" t="s">
         <v>113</v>
       </c>
@@ -15268,7 +15288,7 @@
       <c r="S11" s="160"/>
       <c r="T11" s="160"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="35" t="str">
         <f>N12</f>
         <v>DTPSELC</v>
@@ -15321,39 +15341,39 @@
       <c r="S12" s="164"/>
       <c r="T12" s="164"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E13" s="37"/>
       <c r="F13" s="123"/>
       <c r="G13" s="123"/>
       <c r="I13" s="123"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E14" s="37"/>
       <c r="F14" s="123"/>
       <c r="G14" s="123"/>
       <c r="I14" s="123"/>
       <c r="O14" s="36"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="E15" s="37"/>
       <c r="F15" s="123"/>
       <c r="G15" s="123"/>
       <c r="I15" s="123"/>
       <c r="O15" s="36"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I18" s="105"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="I19" s="105"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="97"/>
       <c r="C23" s="35" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="124"/>
       <c r="C24" s="35" t="s">
         <v>181</v>
@@ -15374,33 +15394,33 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.86328125" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.3984375" customWidth="1"/>
+    <col min="15" max="15" width="7.1328125" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="79.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" customWidth="1"/>
+    <col min="17" max="17" width="79.1328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1328125" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.265625" customWidth="1"/>
     <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="10" t="s">
         <v>94</v>
       </c>
@@ -15426,7 +15446,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="13" t="str">
         <f>EnergyBalance!B20</f>
         <v>TRA</v>
@@ -15467,7 +15487,7 @@
       <c r="U2" s="157"/>
       <c r="V2" s="157"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="N3" s="158" t="s">
         <v>7</v>
       </c>
@@ -15496,7 +15516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -15530,7 +15550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -15557,7 +15577,7 @@
       <c r="U5" s="157"/>
       <c r="V5" s="157"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="N6" s="161" t="s">
         <v>136</v>
       </c>
@@ -15579,7 +15599,7 @@
       <c r="U6" s="161"/>
       <c r="V6" s="161"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
@@ -15601,7 +15621,7 @@
       <c r="U8" s="161"/>
       <c r="V8" s="161"/>
     </row>
-    <row r="9" spans="2:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="20" t="s">
         <v>1</v>
       </c>
@@ -15663,7 +15683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
@@ -15723,7 +15743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="17" t="s">
         <v>113</v>
       </c>
@@ -15775,7 +15795,7 @@
       <c r="U11" s="161"/>
       <c r="V11" s="161"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B12" t="str">
         <f>P11</f>
         <v>TOTEOIL</v>
@@ -15827,7 +15847,7 @@
       <c r="U12" s="161"/>
       <c r="V12" s="161"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
       <c r="D13" t="str">
         <f>$P$6</f>
         <v>TRACO2</v>
@@ -15845,7 +15865,7 @@
       <c r="S13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B14" t="str">
         <f>P12</f>
         <v>TOTNOIL</v>
@@ -15884,7 +15904,7 @@
       <c r="S14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
       <c r="D15" t="str">
         <f>$P$6</f>
         <v>TRACO2</v>
@@ -15903,7 +15923,7 @@
       <c r="S15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="56"/>
       <c r="C23" s="1" t="s">
         <v>180</v>
@@ -15911,7 +15931,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="91"/>
       <c r="C24" s="1" t="s">
         <v>181</v>
@@ -15920,21 +15940,21 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="E27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="E28" s="1"/>
     </row>
   </sheetData>
@@ -15952,33 +15972,33 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.3984375" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" customWidth="1"/>
+    <col min="10" max="10" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.265625" customWidth="1"/>
+    <col min="12" max="12" width="12.73046875" customWidth="1"/>
+    <col min="13" max="13" width="2.73046875" customWidth="1"/>
+    <col min="14" max="14" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.1328125" customWidth="1"/>
+    <col min="16" max="16" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="62.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1328125" customWidth="1"/>
+    <col min="19" max="19" width="11.73046875" customWidth="1"/>
+    <col min="20" max="20" width="13.3984375" customWidth="1"/>
+    <col min="21" max="21" width="13.86328125" customWidth="1"/>
+    <col min="22" max="22" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="10" t="s">
         <v>94</v>
       </c>
@@ -16001,7 +16021,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="13" t="str">
         <f>EnergyBalance!B16</f>
         <v>RSD</v>
@@ -16040,7 +16060,7 @@
       <c r="U2" s="157"/>
       <c r="V2" s="157"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="N3" s="158" t="s">
         <v>7</v>
       </c>
@@ -16069,7 +16089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -16103,7 +16123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -16130,7 +16150,7 @@
       <c r="U5" s="157"/>
       <c r="V5" s="157"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="N6" s="161" t="s">
         <v>136</v>
       </c>
@@ -16152,7 +16172,7 @@
       <c r="U6" s="161"/>
       <c r="V6" s="161"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
@@ -16174,7 +16194,7 @@
       <c r="U8" s="161"/>
       <c r="V8" s="161"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="20" t="s">
         <v>1</v>
       </c>
@@ -16236,7 +16256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
@@ -16296,7 +16316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="17" t="s">
         <v>113</v>
       </c>
@@ -16336,7 +16356,7 @@
       <c r="U11" s="160"/>
       <c r="V11" s="160"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B12" t="str">
         <f>P12</f>
         <v>ROTEGAS</v>
@@ -16390,7 +16410,7 @@
       <c r="U12" s="161"/>
       <c r="V12" s="161"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
       <c r="D13" t="str">
         <f>$P$6</f>
         <v>RSDCO2</v>
@@ -16425,7 +16445,7 @@
       <c r="U13" s="161"/>
       <c r="V13" s="161"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B14" t="str">
         <f>P13</f>
         <v>ROTNGAS</v>
@@ -16460,7 +16480,7 @@
       </c>
       <c r="Q14" s="22"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
       <c r="D15" t="str">
         <f>$P$6</f>
         <v>RSDCO2</v>
@@ -16476,41 +16496,41 @@
       </c>
       <c r="Q15" s="22"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="I19" s="12"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="56"/>
       <c r="C23" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="91"/>
       <c r="C24" s="1" t="s">
         <v>181</v>
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
@@ -16529,20 +16549,20 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.265625" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" customWidth="1"/>
+    <col min="12" max="12" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="10" t="s">
         <v>94</v>
       </c>
@@ -16559,7 +16579,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="13" t="s">
         <v>105</v>
       </c>
@@ -16574,14 +16594,14 @@
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>102</v>
       </c>
@@ -16607,7 +16627,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="20.65" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
         <v>103</v>
       </c>
@@ -16628,7 +16648,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="17" t="s">
         <v>113</v>
       </c>
@@ -16644,7 +16664,7 @@
       <c r="I8" s="16"/>
       <c r="K8" s="100"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="40" t="s">
         <v>35</v>
       </c>
@@ -16665,7 +16685,7 @@
       <c r="I9" s="121"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>35</v>
       </c>
@@ -16686,7 +16706,7 @@
       <c r="I10" s="91"/>
       <c r="K10" s="55"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>35</v>
       </c>
@@ -16707,7 +16727,7 @@
       <c r="I11" s="90"/>
       <c r="K11" s="101"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
@@ -16742,22 +16762,22 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E14" s="37"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E16" s="9"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="56"/>
       <c r="C22" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="91"/>
       <c r="C23" s="1" t="s">
         <v>181</v>
@@ -16773,58 +16793,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:W34"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.86328125" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" customWidth="1"/>
+    <col min="3" max="3" width="6.86328125" customWidth="1"/>
+    <col min="12" max="12" width="6.73046875" customWidth="1"/>
+    <col min="13" max="13" width="7.1328125" customWidth="1"/>
+    <col min="21" max="21" width="5.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B2" s="103" t="s">
         <v>199</v>
       </c>
       <c r="K2" s="103"/>
     </row>
-    <row r="3" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="K3" s="103"/>
     </row>
-    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B4" s="103" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B6" s="33" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="B15" s="103" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:23" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D17" s="104" t="s">
         <v>183</v>
       </c>
@@ -16846,10 +16864,10 @@
       <c r="V17" s="104"/>
       <c r="W17" s="104"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="148"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>197</v>
       </c>
@@ -16865,34 +16883,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" customWidth="1"/>
+    <col min="5" max="5" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.73046875" customWidth="1"/>
+    <col min="8" max="8" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.73046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.73046875" customWidth="1"/>
+    <col min="12" max="12" width="7.1328125" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.59765625" customWidth="1"/>
+    <col min="16" max="16" width="11.59765625" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1328125" customWidth="1"/>
+    <col min="19" max="19" width="7.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="31" t="s">
         <v>94</v>
       </c>
@@ -16910,7 +16926,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="str">
         <f>EnergyBalance!D2</f>
@@ -16940,7 +16956,7 @@
       <c r="R2" s="157"/>
       <c r="S2" s="157"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="K3" s="158" t="s">
         <v>7</v>
       </c>
@@ -16969,7 +16985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="1"/>
       <c r="K4" s="160" t="s">
         <v>40</v>
@@ -16999,7 +17015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="K5" s="157" t="s">
         <v>93</v>
       </c>
@@ -17021,7 +17037,7 @@
       <c r="R5" s="157"/>
       <c r="S5" s="157"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="K6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -17031,7 +17047,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
@@ -17048,7 +17064,7 @@
       <c r="R7" s="161"/>
       <c r="S7" s="161"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -17101,7 +17117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="17" t="s">
         <v>42</v>
       </c>
@@ -17150,7 +17166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="17" t="s">
         <v>113</v>
       </c>
@@ -17182,7 +17198,7 @@
       <c r="R10" s="162"/>
       <c r="S10" s="162"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="str">
         <f>M11</f>
         <v>MINCOA1</v>
@@ -17228,7 +17244,7 @@
       <c r="R11" s="161"/>
       <c r="S11" s="161"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -17260,7 +17276,7 @@
       <c r="R12" s="161"/>
       <c r="S12" s="161"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="str">
         <f>M12</f>
         <v>MINCOA2</v>
@@ -17303,7 +17319,7 @@
       <c r="R13" s="161"/>
       <c r="S13" s="161"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -17338,7 +17354,7 @@
       <c r="R14" s="161"/>
       <c r="S14" s="161"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="str">
         <f>M13</f>
         <v>MINCOA3</v>
@@ -17379,7 +17395,7 @@
       <c r="R15" s="161"/>
       <c r="S15" s="161"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="str">
         <f>M14</f>
         <v>IMPCOA1</v>
@@ -17396,7 +17412,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="str">
         <f>M15</f>
         <v>EXPCOA1</v>
@@ -17420,7 +17436,7 @@
         <v>1147.069</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18">
@@ -17433,19 +17449,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B22" s="93"/>
       <c r="C22" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B23" s="91"/>
       <c r="C23" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -17467,10 +17483,10 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
     </row>
   </sheetData>
@@ -17486,34 +17502,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1328125" customWidth="1"/>
+    <col min="8" max="8" width="8.73046875" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.73046875" customWidth="1"/>
+    <col min="12" max="12" width="7.1328125" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.73046875" customWidth="1"/>
+    <col min="16" max="16" width="11.59765625" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1328125" customWidth="1"/>
+    <col min="19" max="19" width="7.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="31" t="s">
         <v>94</v>
       </c>
@@ -17531,7 +17545,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="str">
         <f>EnergyBalance!E2</f>
@@ -17561,7 +17575,7 @@
       <c r="R2" s="157"/>
       <c r="S2" s="157"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="K3" s="158" t="s">
         <v>7</v>
       </c>
@@ -17590,7 +17604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="1"/>
       <c r="K4" s="160" t="s">
         <v>40</v>
@@ -17620,7 +17634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="K5" s="157" t="s">
         <v>93</v>
       </c>
@@ -17642,7 +17656,7 @@
       <c r="R5" s="157"/>
       <c r="S5" s="157"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
@@ -17659,7 +17673,7 @@
       <c r="R7" s="161"/>
       <c r="S7" s="161"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -17712,7 +17726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="17" t="s">
         <v>42</v>
       </c>
@@ -17761,7 +17775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="17" t="s">
         <v>113</v>
       </c>
@@ -17793,7 +17807,7 @@
       <c r="R10" s="162"/>
       <c r="S10" s="162"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="str">
         <f>M11</f>
         <v>MINGAS1</v>
@@ -17839,7 +17853,7 @@
       <c r="R11" s="161"/>
       <c r="S11" s="161"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -17871,7 +17885,7 @@
       <c r="R12" s="161"/>
       <c r="S12" s="161"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="str">
         <f>M12</f>
         <v>MINGAS2</v>
@@ -17914,7 +17928,7 @@
       <c r="R13" s="161"/>
       <c r="S13" s="161"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -17949,7 +17963,7 @@
       <c r="R14" s="161"/>
       <c r="S14" s="161"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="str">
         <f>M13</f>
         <v>MINGAS3</v>
@@ -17988,7 +18002,7 @@
       <c r="R15" s="161"/>
       <c r="S15" s="161"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="str">
         <f>M14</f>
         <v>IMPGAS1</v>
@@ -18005,7 +18019,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="str">
         <f>M15</f>
         <v>EXPGAS1</v>
@@ -18029,7 +18043,7 @@
         <v>2516.3310000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18">
@@ -18042,7 +18056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -18064,21 +18078,21 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B24" s="93"/>
       <c r="C24" s="1" t="s">
         <v>180</v>
       </c>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="91"/>
       <c r="C25" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="J26" s="1"/>
     </row>
   </sheetData>
@@ -18094,34 +18108,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Y26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1328125" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.73046875" customWidth="1"/>
+    <col min="12" max="12" width="7.1328125" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.59765625" customWidth="1"/>
+    <col min="16" max="16" width="11.59765625" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1328125" customWidth="1"/>
+    <col min="19" max="19" width="7.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="31" t="s">
         <v>94</v>
       </c>
@@ -18139,7 +18151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="str">
         <f>EnergyBalance!F2</f>
@@ -18169,7 +18181,7 @@
       <c r="R2" s="157"/>
       <c r="S2" s="157"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="K3" s="158" t="s">
         <v>7</v>
       </c>
@@ -18198,7 +18210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="1"/>
       <c r="K4" s="160" t="s">
         <v>40</v>
@@ -18228,7 +18240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="K5" s="157" t="s">
         <v>93</v>
       </c>
@@ -18250,7 +18262,7 @@
       <c r="R5" s="157"/>
       <c r="S5" s="157"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
@@ -18267,7 +18279,7 @@
       <c r="R7" s="161"/>
       <c r="S7" s="161"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -18320,7 +18332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="17" t="s">
         <v>42</v>
       </c>
@@ -18369,7 +18381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="17" t="s">
         <v>113</v>
       </c>
@@ -18401,7 +18413,7 @@
       <c r="R10" s="162"/>
       <c r="S10" s="162"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="str">
         <f>M11</f>
         <v>MINOIL1</v>
@@ -18447,7 +18459,7 @@
       <c r="R11" s="161"/>
       <c r="S11" s="161"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -18479,7 +18491,7 @@
       <c r="R12" s="161"/>
       <c r="S12" s="161"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="str">
         <f>M12</f>
         <v>MINOIL2</v>
@@ -18522,7 +18534,7 @@
       <c r="R13" s="161"/>
       <c r="S13" s="161"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -18557,7 +18569,7 @@
       <c r="R14" s="161"/>
       <c r="S14" s="161"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="str">
         <f>M13</f>
         <v>MINOIL3</v>
@@ -18598,7 +18610,7 @@
       <c r="R15" s="161"/>
       <c r="S15" s="161"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="str">
         <f>M14</f>
         <v>IMPOIL1</v>
@@ -18615,7 +18627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="str">
         <f>M15</f>
         <v>EXPOIL1</v>
@@ -18639,7 +18651,7 @@
         <v>14830.662</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.35">
       <c r="E18">
         <v>0</v>
       </c>
@@ -18654,24 +18666,24 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.35">
       <c r="U19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B24" s="93"/>
       <c r="C24" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B25" s="91"/>
       <c r="C25" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.35">
       <c r="J26" s="1"/>
     </row>
   </sheetData>
@@ -18687,35 +18699,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="35" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" style="35" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.5703125" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" customWidth="1"/>
+    <col min="8" max="8" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.73046875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="2.59765625" style="35" customWidth="1"/>
+    <col min="11" max="11" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.59765625" customWidth="1"/>
+    <col min="15" max="15" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1328125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="35"/>
+    <col min="20" max="16384" width="8.86328125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="31" t="s">
         <v>94</v>
       </c>
@@ -18733,7 +18743,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="str">
         <f>EnergyBalance!H2</f>
@@ -18763,7 +18773,7 @@
       <c r="R2" s="157"/>
       <c r="S2" s="157"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="H3" s="12"/>
       <c r="K3" s="158" t="s">
         <v>7</v>
@@ -18793,7 +18803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="K4" s="160" t="s">
         <v>40</v>
@@ -18823,7 +18833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="K5" s="157" t="s">
         <v>93</v>
       </c>
@@ -18845,7 +18855,7 @@
       <c r="R5" s="157"/>
       <c r="S5" s="157"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
@@ -18863,7 +18873,7 @@
       <c r="R7" s="161"/>
       <c r="S7" s="161"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -18916,7 +18926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="17" t="s">
         <v>42</v>
       </c>
@@ -18965,7 +18975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="17" t="s">
         <v>113</v>
       </c>
@@ -18997,7 +19007,7 @@
       <c r="R10" s="162"/>
       <c r="S10" s="162"/>
     </row>
-    <row r="11" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="str">
         <f>M11</f>
         <v>MINRNW1</v>
@@ -19034,7 +19044,7 @@
       <c r="R11" s="161"/>
       <c r="S11" s="161"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -19045,7 +19055,7 @@
       <c r="I12"/>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -19056,7 +19066,7 @@
       <c r="I13"/>
       <c r="N13" s="22"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -19067,7 +19077,7 @@
       <c r="I14"/>
       <c r="N14" s="22"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -19078,21 +19088,21 @@
       <c r="I15" s="9"/>
       <c r="N15" s="22"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="56"/>
       <c r="C23" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="91"/>
       <c r="C24" s="1" t="s">
         <v>181</v>
@@ -19111,35 +19121,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:S24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:I9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.86328125" customWidth="1"/>
     <col min="10" max="10" width="2" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1328125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="35"/>
+    <col min="20" max="16384" width="8.86328125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="31" t="s">
         <v>94</v>
       </c>
@@ -19157,7 +19165,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="str">
         <f>EnergyBalance!G2</f>
@@ -19187,7 +19195,7 @@
       <c r="R2" s="157"/>
       <c r="S2" s="157"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="H3" s="12"/>
       <c r="K3" s="158" t="s">
         <v>7</v>
@@ -19217,7 +19225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="K4" s="160" t="s">
         <v>40</v>
@@ -19247,7 +19255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="K5" s="157" t="s">
         <v>93</v>
       </c>
@@ -19269,7 +19277,7 @@
       <c r="R5" s="157"/>
       <c r="S5" s="157"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
@@ -19286,7 +19294,7 @@
       <c r="R7" s="161"/>
       <c r="S7" s="161"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -19339,7 +19347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="17" t="s">
         <v>42</v>
       </c>
@@ -19388,7 +19396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="17" t="s">
         <v>113</v>
       </c>
@@ -19420,7 +19428,7 @@
       <c r="R10" s="162"/>
       <c r="S10" s="162"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="str">
         <f>M11</f>
         <v>MINNUC1</v>
@@ -19457,7 +19465,7 @@
       <c r="R11" s="161"/>
       <c r="S11" s="161"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -19467,7 +19475,7 @@
       <c r="H12" s="32"/>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -19477,7 +19485,7 @@
       <c r="H13" s="32"/>
       <c r="N13" s="22"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -19487,7 +19495,7 @@
       <c r="H14" s="32"/>
       <c r="N14" s="22"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -19498,7 +19506,7 @@
       <c r="I15" s="9"/>
       <c r="N15" s="22"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="F16" s="1"/>
@@ -19506,14 +19514,14 @@
       <c r="H16" s="1"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="56"/>
       <c r="C23" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="91"/>
       <c r="C24" s="1" t="s">
         <v>181</v>
@@ -19536,28 +19544,28 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="64.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.86328125" customWidth="1"/>
+    <col min="6" max="6" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" customWidth="1"/>
+    <col min="11" max="11" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.3984375" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B1" s="10" t="s">
         <v>94</v>
       </c>
@@ -19577,7 +19585,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
@@ -19606,7 +19614,7 @@
       <c r="P2" s="157"/>
       <c r="Q2" s="157"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="I3" s="158" t="s">
         <v>7</v>
       </c>
@@ -19635,7 +19643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -19668,7 +19676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="I5" s="161" t="s">
@@ -19692,7 +19700,7 @@
       <c r="P5" s="161"/>
       <c r="Q5" s="161"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="I6" s="161"/>
@@ -19714,7 +19722,7 @@
       <c r="P6" s="161"/>
       <c r="Q6" s="161"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="I7" s="161"/>
@@ -19736,7 +19744,7 @@
       <c r="P7" s="161"/>
       <c r="Q7" s="161"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="I8" s="161"/>
@@ -19758,7 +19766,7 @@
       <c r="P8" s="161"/>
       <c r="Q8" s="161"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="I9" s="161"/>
@@ -19780,7 +19788,7 @@
       <c r="P9" s="161"/>
       <c r="Q9" s="161"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="I10" s="161"/>
@@ -19802,7 +19810,7 @@
       <c r="P10" s="161"/>
       <c r="Q10" s="161"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="I11" s="161"/>
@@ -19824,11 +19832,11 @@
       <c r="P11" s="161"/>
       <c r="Q11" s="161"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="K12" s="35"/>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
@@ -19846,21 +19854,21 @@
       <c r="P13" s="161"/>
       <c r="Q13" s="161"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B14" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="E14" s="113" t="s">
         <v>188</v>
       </c>
       <c r="F14" s="113" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G14" s="113" t="s">
         <v>101</v>
@@ -19893,7 +19901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="18" t="s">
         <v>42</v>
       </c>
@@ -19940,7 +19948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="17" t="s">
         <v>113</v>
       </c>
@@ -19966,10 +19974,10 @@
       <c r="P16" s="162"/>
       <c r="Q16" s="162"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" t="str">
         <f t="shared" ref="B17:B23" si="1">K17</f>
-        <v>FTE-RSDGAS</v>
+        <v>FTERSDGAS</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ref="C17:C23" si="2">RIGHT(D17,3)</f>
@@ -19991,29 +19999,29 @@
       </c>
       <c r="J17" s="161"/>
       <c r="K17" s="161" t="str">
-        <f t="shared" ref="K17:K23" si="3">"FT"&amp;$G$2&amp;"-"&amp;K5</f>
-        <v>FTE-RSDGAS</v>
+        <f>"FT"&amp;$G$2&amp;""&amp;K5</f>
+        <v>FTERSDGAS</v>
       </c>
       <c r="L17" s="163" t="str">
-        <f>$D$2&amp;" "&amp;$G$1&amp;" "&amp;EnergyBalance!$C$16&amp; " Sector- "&amp;EnergyBalance!$E$3</f>
-        <v>Sector Fuel Existing Residential Sector- Natural Gas</v>
+        <f>$D$2&amp;" "&amp;$G$1&amp;" "&amp;EnergyBalance!$C$16&amp; " Sector "&amp;EnergyBalance!$E$3</f>
+        <v>Sector Fuel Existing Residential Sector Natural Gas</v>
       </c>
       <c r="M17" s="161" t="str">
-        <f t="shared" ref="M17:M23" si="4">$E$2</f>
+        <f t="shared" ref="M17:M23" si="3">$E$2</f>
         <v>PJ</v>
       </c>
       <c r="N17" s="161" t="str">
-        <f t="shared" ref="N17:N23" si="5">$E$2&amp;"a"</f>
+        <f t="shared" ref="N17:N23" si="4">$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
       <c r="O17" s="161"/>
       <c r="P17" s="161"/>
       <c r="Q17" s="161"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-TRAOIL</v>
+        <v>FTETRAOIL</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="2"/>
@@ -20033,29 +20041,29 @@
       <c r="I18" s="161"/>
       <c r="J18" s="161"/>
       <c r="K18" s="161" t="str">
+        <f>"FT"&amp;$G$2&amp;""&amp;K6</f>
+        <v>FTETRAOIL</v>
+      </c>
+      <c r="L18" s="163" t="str">
+        <f>$D$2&amp;" "&amp;$G$1&amp;" "&amp;EnergyBalance!$C$20&amp; " Sector "&amp;EnergyBalance!$F$3</f>
+        <v>Sector Fuel Existing Transport Sector Crude Oil</v>
+      </c>
+      <c r="M18" s="161" t="str">
         <f t="shared" si="3"/>
-        <v>FTE-TRAOIL</v>
-      </c>
-      <c r="L18" s="163" t="str">
-        <f>$D$2&amp;" "&amp;$G$1&amp;" "&amp;EnergyBalance!$C$20&amp; " Sector- "&amp;EnergyBalance!$F$3</f>
-        <v>Sector Fuel Existing Transport Sector- Crude Oil</v>
-      </c>
-      <c r="M18" s="161" t="str">
+        <v>PJ</v>
+      </c>
+      <c r="N18" s="161" t="str">
         <f t="shared" si="4"/>
-        <v>PJ</v>
-      </c>
-      <c r="N18" s="161" t="str">
-        <f t="shared" si="5"/>
         <v>PJa</v>
       </c>
       <c r="O18" s="161"/>
       <c r="P18" s="161"/>
       <c r="Q18" s="161"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCCOA</v>
+        <v>FTEELCCOA</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="2"/>
@@ -20075,29 +20083,29 @@
       <c r="I19" s="161"/>
       <c r="J19" s="161"/>
       <c r="K19" s="161" t="str">
-        <f t="shared" si="3"/>
-        <v>FTE-ELCCOA</v>
+        <f>"FT"&amp;$G$2&amp;""&amp;K7</f>
+        <v>FTEELCCOA</v>
       </c>
       <c r="L19" s="163" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L7</f>
         <v>Sector Fuel Technology Existing Electricity Plants Solid Fuels</v>
       </c>
       <c r="M19" s="161" t="str">
+        <f t="shared" si="3"/>
+        <v>PJ</v>
+      </c>
+      <c r="N19" s="161" t="str">
         <f t="shared" si="4"/>
-        <v>PJ</v>
-      </c>
-      <c r="N19" s="161" t="str">
-        <f t="shared" si="5"/>
         <v>PJa</v>
       </c>
       <c r="O19" s="161"/>
       <c r="P19" s="161"/>
       <c r="Q19" s="161"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCGAS</v>
+        <v>FTEELCGAS</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="2"/>
@@ -20117,29 +20125,29 @@
       <c r="I20" s="161"/>
       <c r="J20" s="161"/>
       <c r="K20" s="161" t="str">
-        <f t="shared" si="3"/>
-        <v>FTE-ELCGAS</v>
+        <f>"FT"&amp;$G$2&amp;""&amp;K8</f>
+        <v>FTEELCGAS</v>
       </c>
       <c r="L20" s="163" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L8</f>
         <v>Sector Fuel Technology Existing Electricity Plants Natural Gas</v>
       </c>
       <c r="M20" s="161" t="str">
+        <f t="shared" si="3"/>
+        <v>PJ</v>
+      </c>
+      <c r="N20" s="161" t="str">
         <f t="shared" si="4"/>
-        <v>PJ</v>
-      </c>
-      <c r="N20" s="161" t="str">
-        <f t="shared" si="5"/>
         <v>PJa</v>
       </c>
       <c r="O20" s="161"/>
       <c r="P20" s="161"/>
       <c r="Q20" s="161"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCOIL</v>
+        <v>FTEELCOIL</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="2"/>
@@ -20159,29 +20167,29 @@
       <c r="I21" s="161"/>
       <c r="J21" s="161"/>
       <c r="K21" s="161" t="str">
-        <f t="shared" si="3"/>
-        <v>FTE-ELCOIL</v>
+        <f>"FT"&amp;$G$2&amp;""&amp;K9</f>
+        <v>FTEELCOIL</v>
       </c>
       <c r="L21" s="161" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L9</f>
         <v>Sector Fuel Technology Existing Electricity Plants Crude Oil</v>
       </c>
       <c r="M21" s="161" t="str">
+        <f t="shared" si="3"/>
+        <v>PJ</v>
+      </c>
+      <c r="N21" s="161" t="str">
         <f t="shared" si="4"/>
-        <v>PJ</v>
-      </c>
-      <c r="N21" s="161" t="str">
-        <f t="shared" si="5"/>
         <v>PJa</v>
       </c>
       <c r="O21" s="161"/>
       <c r="P21" s="161"/>
       <c r="Q21" s="161"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCRNW</v>
+        <v>FTEELCRNW</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="2"/>
@@ -20201,29 +20209,29 @@
       <c r="I22" s="161"/>
       <c r="J22" s="161"/>
       <c r="K22" s="161" t="str">
-        <f t="shared" si="3"/>
-        <v>FTE-ELCRNW</v>
+        <f>"FT"&amp;$G$2&amp;""&amp;K10</f>
+        <v>FTEELCRNW</v>
       </c>
       <c r="L22" s="163" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L10</f>
         <v>Sector Fuel Technology Existing Electricity Plants Renewable Energies</v>
       </c>
       <c r="M22" s="161" t="str">
+        <f t="shared" si="3"/>
+        <v>PJ</v>
+      </c>
+      <c r="N22" s="161" t="str">
         <f t="shared" si="4"/>
-        <v>PJ</v>
-      </c>
-      <c r="N22" s="161" t="str">
-        <f t="shared" si="5"/>
         <v>PJa</v>
       </c>
       <c r="O22" s="161"/>
       <c r="P22" s="161"/>
       <c r="Q22" s="161"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCNUC</v>
+        <v>FTEELCNUC</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="2"/>
@@ -20243,34 +20251,34 @@
       <c r="I23" s="164"/>
       <c r="J23" s="164"/>
       <c r="K23" s="161" t="str">
-        <f t="shared" si="3"/>
-        <v>FTE-ELCNUC</v>
+        <f>"FT"&amp;$G$2&amp;""&amp;K11</f>
+        <v>FTEELCNUC</v>
       </c>
       <c r="L23" s="163" t="str">
         <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L11</f>
         <v>Sector Fuel Technology Existing Electricity Plants Nuclear Energy</v>
       </c>
       <c r="M23" s="161" t="str">
+        <f t="shared" si="3"/>
+        <v>PJ</v>
+      </c>
+      <c r="N23" s="161" t="str">
         <f t="shared" si="4"/>
-        <v>PJ</v>
-      </c>
-      <c r="N23" s="161" t="str">
-        <f t="shared" si="5"/>
         <v>PJa</v>
       </c>
       <c r="O23" s="161"/>
       <c r="P23" s="161"/>
       <c r="Q23" s="161"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="56"/>
       <c r="C26" s="1" t="s">
         <v>180</v>
@@ -20278,7 +20286,7 @@
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B27" s="91"/>
       <c r="C27" s="1" t="s">
         <v>181</v>
@@ -20296,43 +20304,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="35" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" style="35" customWidth="1"/>
     <col min="7" max="7" width="10" style="35" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="35" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="35" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="8.1328125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.265625" style="35" customWidth="1"/>
+    <col min="12" max="12" width="7.86328125" style="35" customWidth="1"/>
     <col min="13" max="13" width="7" style="35" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="35" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="35" customWidth="1"/>
+    <col min="14" max="14" width="9.59765625" style="35" customWidth="1"/>
+    <col min="15" max="15" width="15.1328125" style="35" customWidth="1"/>
     <col min="16" max="16" width="2" style="35" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.59765625" style="35" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" style="35" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.1328125" customWidth="1"/>
     <col min="22" max="22" width="55" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.265625" customWidth="1"/>
+    <col min="24" max="24" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.85546875" style="35"/>
+    <col min="27" max="27" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.86328125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:27" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="31" t="s">
         <v>94</v>
       </c>
@@ -20358,7 +20366,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="2:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="13" t="str">
         <f>EnergyBalance!B11</f>
         <v>ELC</v>
@@ -20399,7 +20407,7 @@
       <c r="Z2" s="157"/>
       <c r="AA2" s="157"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="S3" s="158" t="s">
         <v>7</v>
       </c>
@@ -20428,7 +20436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="39" t="s">
         <v>160</v>
       </c>
@@ -20473,7 +20481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="38" t="s">
         <v>166</v>
       </c>
@@ -20513,7 +20521,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
       <c r="S6" s="161" t="s">
         <v>136</v>
       </c>
@@ -20535,11 +20543,11 @@
       <c r="Z6" s="161"/>
       <c r="AA6" s="161"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
@@ -20565,7 +20573,7 @@
       <c r="Z8" s="157"/>
       <c r="AA8" s="157"/>
     </row>
-    <row r="9" spans="2:27" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="20" t="s">
         <v>1</v>
       </c>
@@ -20641,7 +20649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="18" t="s">
         <v>42</v>
       </c>
@@ -20715,7 +20723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="17" t="s">
         <v>113</v>
       </c>
@@ -20772,7 +20780,7 @@
       <c r="Z11" s="160"/>
       <c r="AA11" s="160"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B12" s="35" t="str">
         <f>U12</f>
         <v>ELCTECOA00</v>
@@ -20839,7 +20847,7 @@
       <c r="Z12" s="161"/>
       <c r="AA12" s="161"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D13" s="35" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -20881,7 +20889,7 @@
       <c r="Z13" s="161"/>
       <c r="AA13" s="161"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B14" s="35" t="str">
         <f>U13</f>
         <v>ELCTEGAS00</v>
@@ -20947,7 +20955,7 @@
       <c r="Z14" s="161"/>
       <c r="AA14" s="161"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D15" s="35" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -20989,7 +20997,7 @@
       <c r="Z15" s="161"/>
       <c r="AA15" s="161"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B16" s="35" t="str">
         <f>U14</f>
         <v>ELCTEOIL00</v>
@@ -21056,7 +21064,7 @@
       <c r="Z16" s="161"/>
       <c r="AA16" s="161"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D17" s="35" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -21099,7 +21107,7 @@
       <c r="Z17" s="161"/>
       <c r="AA17" s="161"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B18" s="35" t="str">
         <f>U15</f>
         <v>ELCRERNW00</v>
@@ -21164,7 +21172,7 @@
       <c r="Z18" s="161"/>
       <c r="AA18" s="161"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B19" s="143" t="str">
         <f>U16</f>
         <v>ELCTENUC00</v>
@@ -21232,7 +21240,7 @@
       <c r="Z19" s="161"/>
       <c r="AA19" s="161"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B20" s="35" t="str">
         <f>U17</f>
         <v>ELCTNCOA00</v>
@@ -21275,7 +21283,7 @@
       <c r="P20" s="123"/>
       <c r="R20" s="45"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D21" s="35" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -21295,7 +21303,7 @@
       </c>
       <c r="P21" s="123"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B22" s="35" t="str">
         <f>U18</f>
         <v>ELCTNGAS00</v>
@@ -21335,7 +21343,7 @@
       </c>
       <c r="P22" s="123"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D23" s="35" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -21353,7 +21361,7 @@
       </c>
       <c r="P23" s="123"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B24" s="35" t="str">
         <f>U19</f>
         <v>ELCTNOIL00</v>
@@ -21393,7 +21401,7 @@
       </c>
       <c r="P24" s="123"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D25" s="35" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -21409,40 +21417,40 @@
         <v>254.66666666666669</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.35">
       <c r="N26" s="37"/>
       <c r="Q26" s="37"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.35">
       <c r="Q28" s="37"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.35">
       <c r="Q30" s="37"/>
       <c r="V30" s="22"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B31" s="56"/>
       <c r="C31" s="1" t="s">
         <v>180</v>
       </c>
       <c r="V31" s="22"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B32" s="91"/>
       <c r="C32" s="1" t="s">
         <v>181</v>
       </c>
       <c r="V32" s="22"/>
     </row>
-    <row r="33" spans="22:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="22:25" x14ac:dyDescent="0.35">
       <c r="V33" s="22"/>
     </row>
-    <row r="34" spans="22:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="22:25" x14ac:dyDescent="0.35">
       <c r="V34" s="22"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="22:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="22:25" x14ac:dyDescent="0.35">
       <c r="Y35" s="1"/>
     </row>
   </sheetData>
